--- a/周报.xlsx
+++ b/周报.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>表格 1</t>
   </si>
   <si>
+    <t>总金额</t>
+  </si>
+  <si>
     <t>持有方式</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>资金占比</t>
+  </si>
+  <si>
+    <t>10000（一万）</t>
   </si>
   <si>
     <t>长期持有</t>
@@ -125,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -145,6 +151,21 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -159,7 +180,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -174,7 +195,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -189,6 +210,156 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
@@ -201,10 +372,10 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -216,10 +387,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -231,100 +402,25 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -336,7 +432,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -351,66 +447,6 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
@@ -424,7 +460,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -437,79 +473,85 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -536,6 +578,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff7f7f7f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1594,16 +1637,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O23"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="15" width="16.3516" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="14" width="16.3516" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
@@ -1623,7 +1666,6 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
     </row>
     <row r="2" ht="22.55" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1665,13 +1707,16 @@
       <c r="M2" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="N2" t="s" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="22.85" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1683,388 +1728,351 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
+    </row>
+    <row r="4" ht="51.25" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" ht="51.25" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="B4" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10">
         <v>44120</v>
       </c>
-      <c r="C5" t="s" s="13">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="D4" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12">
         <v>601668</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12">
         <v>5.1</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H4" s="14">
         <v>5.105</v>
       </c>
-      <c r="H5" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="I4" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="J4" s="12">
         <v>5110</v>
       </c>
-      <c r="J5" s="14">
+      <c r="K4" s="12">
         <v>5105</v>
       </c>
-      <c r="K5" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="18">
+      <c r="L4" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="16">
         <v>0.51</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+    </row>
+    <row r="5" ht="23" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="6" ht="23" customHeight="1">
-      <c r="A6" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" t="s" s="13">
-        <v>20</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18">
-        <v>0.49</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" ht="23" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/周报.xlsx
+++ b/周报.xlsx
@@ -5,26 +5,40 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="2" r:id="rId5"/>
+    <sheet name="工作表 2" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
+  </si>
+  <si>
+    <t>Numbers 表格工作表名称</t>
+  </si>
+  <si>
+    <t>数字表格名称</t>
+  </si>
+  <si>
+    <t>Excel 工作表名称</t>
+  </si>
+  <si>
+    <t>工作表 1</t>
+  </si>
   <si>
     <t>表格 1</t>
   </si>
   <si>
-    <t>总金额</t>
-  </si>
-  <si>
-    <t>持有方式</t>
-  </si>
-  <si>
     <t>时间</t>
   </si>
   <si>
+    <t>方式</t>
+  </si>
+  <si>
     <t>股票名称</t>
   </si>
   <si>
@@ -37,6 +51,9 @@
     <t>买入价格</t>
   </si>
   <si>
+    <t>卖出价格</t>
+  </si>
+  <si>
     <t>成本价</t>
   </si>
   <si>
@@ -58,31 +75,40 @@
     <t>资金占比</t>
   </si>
   <si>
-    <t>10000（一万）</t>
-  </si>
-  <si>
-    <t>长期持有</t>
+    <t>剩余资金</t>
+  </si>
+  <si>
+    <t>2020/10/26 - 2020/10/30</t>
+  </si>
+  <si>
+    <t>卖出</t>
   </si>
   <si>
     <t>中国建筑</t>
   </si>
   <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>通过查资料决定低于5.0在买，现在决定先清仓</t>
+  </si>
+  <si>
+    <t>盈利2.2%</t>
+  </si>
+  <si>
+    <t>持有</t>
+  </si>
+  <si>
+    <t>每股5.105 手续费15.21</t>
+  </si>
+  <si>
     <t>建筑市场的龙头。现金充沛， 营业稳定</t>
   </si>
   <si>
     <t xml:space="preserve"> 股息，股票溢价</t>
   </si>
   <si>
-    <t>中短期</t>
-  </si>
-  <si>
-    <t>沪深etf</t>
-  </si>
-  <si>
-    <t>市场波动</t>
-  </si>
-  <si>
-    <t>兖州煤业</t>
+    <t>工作表 2</t>
   </si>
 </sst>
 </file>
@@ -93,7 +119,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -105,13 +131,50 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体 (正文)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体 (正文)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +189,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -141,43 +228,58 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
         <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -186,13 +288,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -201,13 +303,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -216,76 +318,162 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
         <color indexed="13"/>
-      </left>
-      <right style="thin">
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
-      </right>
-      <top style="thin">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="20"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="20"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="20"/>
+      </left>
+      <right style="thin">
+        <color indexed="20"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="13"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="20"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
         <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      </right>
+      <top style="thin">
         <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -294,28 +482,58 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
         <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -324,10 +542,10 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
@@ -336,121 +554,151 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
         <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,9 +708,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -470,91 +733,145 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,11 +891,21 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ff323232"/>
+      <rgbColor rgb="fffefffe"/>
+      <rgbColor rgb="ffd6d6d6"/>
+      <rgbColor rgb="ff89847f"/>
+      <rgbColor rgb="ffa6a29f"/>
+      <rgbColor rgb="ffe3e3e3"/>
+      <rgbColor rgb="fff4f9f8"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff929292"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff7f7f7f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1637,442 +1964,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'工作表 1'!R2C1" tooltip="" display="工作表 1"/>
+    <hyperlink ref="D12" location="'工作表 2'!R2C1" tooltip="" display="工作表 2"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="14" width="16.3516" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.0859" style="6" customWidth="1"/>
+    <col min="2" max="15" width="16.3516" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="16.3516" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
+      <c r="A1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" ht="22.85" customHeight="1">
+      <c r="A2" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="B2" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="C2" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="D2" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="E2" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="F2" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="3">
+      <c r="G2" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="3">
+      <c r="H2" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="3">
+      <c r="I2" t="s" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="22.85" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="J2" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" ht="51.25" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s" s="9">
+      <c r="K2" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="C4" s="10">
-        <v>44120</v>
-      </c>
-      <c r="D4" t="s" s="11">
+      <c r="L2" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="E4" s="12">
-        <v>601668</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12">
-        <v>5.1</v>
-      </c>
-      <c r="H4" s="14">
-        <v>5.105</v>
-      </c>
-      <c r="I4" t="s" s="15">
+      <c r="M2" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="J4" s="12">
-        <v>5110</v>
-      </c>
-      <c r="K4" s="12">
-        <v>5105</v>
-      </c>
-      <c r="L4" t="s" s="11">
+      <c r="N2" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="16">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="5" ht="23" customHeight="1">
+      <c r="O2" t="s" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="20.7" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" ht="55.7" customHeight="1">
+      <c r="A4" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" ht="55.7" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="6" ht="23" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" t="s" s="11">
+      <c r="C5" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="D5" s="20">
+        <v>601668</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20">
+        <v>5.1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>5.26</v>
+      </c>
+      <c r="H5" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0.51</v>
+      </c>
+      <c r="O5" s="20">
+        <v>10144.33</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" ht="51.25" customHeight="1">
+      <c r="A7" s="27">
+        <v>44120</v>
+      </c>
+      <c r="B7" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="D7" s="20">
+        <v>601668</v>
+      </c>
+      <c r="E7" s="20">
+        <v>5.12</v>
+      </c>
+      <c r="F7" s="20">
+        <v>5.1</v>
+      </c>
+      <c r="G7" t="s" s="28">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="29">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="J7" s="20">
+        <v>5110</v>
+      </c>
+      <c r="K7" s="20">
+        <v>5105</v>
+      </c>
+      <c r="L7" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s" s="28">
+        <v>24</v>
+      </c>
+      <c r="N7" s="30">
+        <v>0.51</v>
+      </c>
+      <c r="O7" s="31">
+        <v>4894.9</v>
+      </c>
+    </row>
+    <row r="8" ht="20.3" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+    </row>
+    <row r="9" ht="19.95" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+    </row>
+    <row r="10" ht="19.95" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
+    </row>
+    <row r="11" ht="19.95" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" ht="19.95" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+    </row>
+    <row r="13" ht="19.95" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" ht="19.95" customHeight="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+    </row>
+    <row r="15" ht="19.95" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" ht="19.95" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
+    </row>
+    <row r="17" ht="19.95" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" ht="19.95" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
+    </row>
+    <row r="19" ht="19.95" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" ht="19.95" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+    </row>
+    <row r="21" ht="19.95" customHeight="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" ht="19.95" customHeight="1">
+      <c r="A22" s="36"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
+    </row>
+    <row r="23" ht="20.2" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2080,4 +2541,112 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/周报.xlsx
+++ b/周报.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28000" windowHeight="11780"/>
   </bookViews>
   <sheets>
-    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
-    <sheet name="工作表 1" sheetId="2" r:id="rId5"/>
-    <sheet name="工作表 2" sheetId="3" r:id="rId6"/>
+    <sheet name="投资时间线" sheetId="2" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
-  <si>
-    <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
-  </si>
-  <si>
-    <t>Numbers 表格工作表名称</t>
-  </si>
-  <si>
-    <t>数字表格名称</t>
-  </si>
-  <si>
-    <t>Excel 工作表名称</t>
-  </si>
-  <si>
-    <t>工作表 1</t>
-  </si>
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>时间</t>
   </si>
@@ -107,74 +90,222 @@
   <si>
     <t xml:space="preserve"> 股息，股票溢价</t>
   </si>
-  <si>
-    <t>工作表 2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="12"/>
-      <name val="Helvetica Neue"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Helvetica Neue Medium"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体 (正文)_x0000_"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体 (正文)_x0000_"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体 (正文)_x0000_"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体 (正文)_x0000_"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,42 +314,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="19"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="21"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -227,17 +532,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFFFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFFFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
+        <color rgb="FFFEFFFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFFFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFFFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color rgb="FFFEFFFE"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color rgb="FFFEFFFE"/>
       </bottom>
       <diagonal/>
     </border>
@@ -249,25 +578,10 @@
         <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color rgb="FFFEFFFE"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
+        <color rgb="FFFEFFFE"/>
       </bottom>
       <diagonal/>
     </border>
@@ -278,9 +592,7 @@
       <right style="thin">
         <color indexed="16"/>
       </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -293,9 +605,7 @@
       <right style="thin">
         <color indexed="17"/>
       </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -308,24 +618,7 @@
       <right style="thin">
         <color indexed="17"/>
       </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -377,6 +670,167 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="20"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="20"/>
       </left>
@@ -392,73 +846,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FFFEFFFE"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color rgb="FFFEFFFE"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="17"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="20"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,51 +890,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="17"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="17"/>
       </left>
       <right style="thin">
@@ -539,51 +905,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="17"/>
       </left>
       <right style="thin">
@@ -598,321 +919,511 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ffd6d6d6"/>
-      <rgbColor rgb="ff89847f"/>
-      <rgbColor rgb="ffa6a29f"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="fff4f9f8"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff929292"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="005E88B1"/>
+      <rgbColor rgb="00EEF3F4"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00323232"/>
+      <rgbColor rgb="00FEFFFE"/>
+      <rgbColor rgb="00D6D6D6"/>
+      <rgbColor rgb="0089847F"/>
+      <rgbColor rgb="00A6A29F"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="00F4F9F8"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00929292"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1108,8 +1619,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -1129,8 +1638,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,10 +1647,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="Helvetica Neue Medium" panose="02000503000000020004"/>
+            <a:ea typeface="Helvetica Neue Medium" panose="02000503000000020004"/>
+            <a:cs typeface="Helvetica Neue Medium" panose="02000503000000020004"/>
+            <a:sym typeface="Helvetica Neue Medium" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1159,8 +1667,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,8 +1692,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,8 +1717,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,8 +1742,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,8 +1767,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,8 +1792,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,8 +1817,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,8 +1842,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,8 +1867,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,9 +1880,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1397,8 +1902,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1418,8 +1921,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1444,8 +1946,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1470,8 +1971,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,8 +1996,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1522,8 +2021,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1548,8 +2046,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,8 +2071,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1600,8 +2096,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1626,8 +2121,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,8 +2146,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1666,9 +2159,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1679,8 +2178,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1700,8 +2197,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1713,7 +2209,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1730,8 +2226,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1756,8 +2251,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1782,8 +2276,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1808,8 +2301,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1834,8 +2326,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1860,8 +2351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1886,8 +2376,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1912,8 +2401,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1938,8 +2426,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1952,9 +2439,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1963,688 +2456,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="1" max="1" width="27.0892857142857" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="16.3482142857143" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="1" s="1" customFormat="1" ht="22.85" customHeight="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>3</v>
-      </c>
+    <row r="2" ht="20.7" customHeight="1" spans="1:15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="34"/>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+    <row r="3" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
+    <row r="4" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14">
+        <v>601668</v>
+      </c>
+      <c r="E4" s="14">
+        <v>5.22</v>
+      </c>
+      <c r="F4" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="G4" s="29">
+        <v>5.26</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="35">
+        <v>0.51</v>
+      </c>
+      <c r="O4" s="14">
+        <v>10144.33</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+    <row r="5" ht="17" customHeight="1" spans="1:15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>31</v>
-      </c>
+    <row r="6" ht="51.25" customHeight="1" spans="1:15">
+      <c r="A6" s="17">
+        <v>44120</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14">
+        <v>601668</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5.12</v>
+      </c>
+      <c r="F6" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="14">
+        <v>5110</v>
+      </c>
+      <c r="K6" s="14">
+        <v>5105</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="36">
+        <v>0.51</v>
+      </c>
+      <c r="O6" s="37">
+        <v>4894.9</v>
+      </c>
+    </row>
+    <row r="7" ht="20.3" customHeight="1" spans="1:15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="39"/>
+    </row>
+    <row r="9" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="40"/>
+    </row>
+    <row r="10" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="40"/>
+    </row>
+    <row r="12" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="40"/>
+    </row>
+    <row r="14" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="40"/>
+    </row>
+    <row r="16" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="40"/>
+    </row>
+    <row r="18" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="40"/>
+    </row>
+    <row r="20" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="40"/>
+    </row>
+    <row r="22" ht="20.2" customHeight="1" spans="1:15">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'工作表 1'!R2C1" tooltip="" display="工作表 1"/>
-    <hyperlink ref="D12" location="'工作表 2'!R2C1" tooltip="" display="工作表 2"/>
-  </hyperlinks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:O23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="27.0859" style="6" customWidth="1"/>
-    <col min="2" max="15" width="16.3516" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="16.3516" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" ht="22.85" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" ht="55.7" customHeight="1">
-      <c r="A4" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" ht="55.7" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" t="s" s="18">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s" s="19">
-        <v>23</v>
-      </c>
-      <c r="D5" s="20">
-        <v>601668</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20">
-        <v>5.1</v>
-      </c>
-      <c r="G5" s="22">
-        <v>5.26</v>
-      </c>
-      <c r="H5" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s" s="23">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s" s="23">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="O5" s="20">
-        <v>10144.33</v>
-      </c>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" ht="51.25" customHeight="1">
-      <c r="A7" s="27">
-        <v>44120</v>
-      </c>
-      <c r="B7" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="19">
-        <v>23</v>
-      </c>
-      <c r="D7" s="20">
-        <v>601668</v>
-      </c>
-      <c r="E7" s="20">
-        <v>5.12</v>
-      </c>
-      <c r="F7" s="20">
-        <v>5.1</v>
-      </c>
-      <c r="G7" t="s" s="28">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s" s="29">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="J7" s="20">
-        <v>5110</v>
-      </c>
-      <c r="K7" s="20">
-        <v>5105</v>
-      </c>
-      <c r="L7" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s" s="28">
-        <v>24</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0.51</v>
-      </c>
-      <c r="O7" s="31">
-        <v>4894.9</v>
-      </c>
-    </row>
-    <row r="8" ht="20.3" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" ht="19.95" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="10" ht="19.95" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42"/>
-    </row>
-    <row r="11" ht="19.95" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-    </row>
-    <row r="12" ht="19.95" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
-    </row>
-    <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-    </row>
-    <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
-    </row>
-    <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-    </row>
-    <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="42"/>
-    </row>
-    <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
-    </row>
-    <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="42"/>
-    </row>
-    <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
-    </row>
-    <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="42"/>
-    </row>
-    <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-    </row>
-    <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="42"/>
-    </row>
-    <row r="23" ht="20.2" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="16.3516" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="47" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/周报.xlsx
+++ b/周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -64,19 +64,42 @@
     <t>2020/10/26 - 2020/10/30</t>
   </si>
   <si>
+    <t>买出</t>
+  </si>
+  <si>
+    <t>华宝油气</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>处于底部</t>
+  </si>
+  <si>
+    <t>股票溢价</t>
+  </si>
+  <si>
     <t>卖出</t>
   </si>
   <si>
     <t>中国建筑</t>
   </si>
   <si>
-    <t>——</t>
-  </si>
-  <si>
     <t>通过查资料决定低于5.0在买，现在决定先清仓</t>
   </si>
   <si>
-    <t>盈利2.2%</t>
+    <r>
+      <t>盈利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.2%</t>
+    </r>
   </si>
   <si>
     <t>持有</t>
@@ -88,7 +111,24 @@
     <t>建筑市场的龙头。现金充沛， 营业稳定</t>
   </si>
   <si>
-    <t xml:space="preserve"> 股息，股票溢价</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股息，股票溢价</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -96,12 +136,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -131,6 +171,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -154,22 +201,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,8 +229,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,24 +273,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +291,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,67 +358,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -320,31 +379,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="18"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="19"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,25 +505,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,139 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,8 +981,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,7 +991,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,45 +1043,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1016,157 +1066,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1174,6 +1233,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,13 +1259,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1212,22 +1277,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,10 +1304,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1254,17 +1319,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1272,6 +1343,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1281,13 +1361,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2461,482 +2541,508 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.0892857142857" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="16.3482142857143" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.0892857142857" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="16.3482142857143" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.85" customHeight="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="20.7" customHeight="1" spans="1:15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="34"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="38"/>
     </row>
-    <row r="3" ht="55.7" customHeight="1" spans="1:15">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="2" customFormat="1" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12">
+        <v>162411</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12">
+        <v>990</v>
+      </c>
+      <c r="K3" s="12">
+        <v>990</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="39">
+        <v>-0.0045</v>
+      </c>
+      <c r="N3" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="12">
+        <v>9154.08</v>
+      </c>
     </row>
     <row r="4" ht="55.7" customHeight="1" spans="1:15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16">
         <v>601668</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="16">
         <v>5.22</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="16">
         <v>5.1</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="31">
         <v>5.26</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="30" t="s">
+      <c r="I4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="35">
+      <c r="M4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="42">
         <v>0.51</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="16">
         <v>10144.33</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" ht="51.25" customHeight="1" spans="1:15">
-      <c r="A6" s="17">
+      <c r="A6" s="19">
         <v>44120</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="B6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16">
         <v>601668</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="16">
         <v>5.12</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="16">
         <v>5.1</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="H6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="16">
         <v>5110</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="16">
         <v>5105</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="31" t="s">
+      <c r="L6" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="43">
         <v>0.51</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="44">
         <v>4894.9</v>
       </c>
     </row>
     <row r="7" ht="20.3" customHeight="1" spans="1:15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="38"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="39"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="40"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="39"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="40"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="39"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="40"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="39"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="40"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="39"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="40"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="39"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="40"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="47"/>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="39"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="40"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="47"/>
     </row>
     <row r="22" ht="20.2" customHeight="1" spans="1:15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="41"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/周报.xlsx
+++ b/周报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>时间</t>
   </si>
@@ -64,16 +64,42 @@
     <t>2020/10/26 - 2020/10/30</t>
   </si>
   <si>
-    <t>买出</t>
+    <t>买入</t>
   </si>
   <si>
-    <t>华宝油气</t>
+    <t>本钢转债</t>
   </si>
   <si>
     <t>——</t>
   </si>
   <si>
+    <t>90.592</t>
+  </si>
+  <si>
     <t>处于底部</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股息，股票溢价</t>
+    </r>
+  </si>
+  <si>
+    <t>华宝油气</t>
   </si>
   <si>
     <t>股票溢价</t>
@@ -89,6 +115,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>盈利</t>
     </r>
     <r>
@@ -110,36 +142,16 @@
   <si>
     <t>建筑市场的龙头。现金充沛， 营业稳定</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股息，股票溢价</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -176,6 +188,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
@@ -203,64 +221,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,8 +255,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,7 +279,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,29 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,9 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,181 +415,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,17 +993,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,6 +1014,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1026,32 +1053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1070,8 +1071,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,152 +1092,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1262,27 +1274,30 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,46 +1334,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2538,14 +2556,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -2597,7 +2615,7 @@
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="40" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2616,7 +2634,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="38"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="55.7" customHeight="1" spans="1:15">
       <c r="A3" s="10" t="s">
@@ -2628,425 +2646,472 @@
       <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
+        <v>127018</v>
+      </c>
+      <c r="E3" s="13">
+        <v>90.491</v>
+      </c>
+      <c r="F3" s="13">
+        <v>90.497</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="13">
+        <v>905.92</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="43">
+        <v>8154.08</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14">
         <v>162411</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12">
+      <c r="E4" s="14">
+        <v>0.219</v>
+      </c>
+      <c r="F4" s="14">
         <v>0.22</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H4" s="14">
         <v>0.22</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14">
         <v>990</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K4" s="14">
         <v>990</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="39">
+      <c r="L4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="44">
         <v>-0.0045</v>
       </c>
-      <c r="N3" s="40">
+      <c r="N4" s="45">
         <v>0.1</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O4" s="14">
         <v>9154.08</v>
       </c>
     </row>
-    <row r="4" ht="55.7" customHeight="1" spans="1:15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+    <row r="5" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13">
+        <v>601668</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5.22</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="G5" s="34">
+        <v>5.26</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="46">
+        <v>0.51</v>
+      </c>
+      <c r="O5" s="13">
+        <v>10144.33</v>
+      </c>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" ht="51.25" customHeight="1" spans="1:15">
+      <c r="A7" s="20">
+        <v>44120</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13">
+        <v>601668</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5.12</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="13">
+        <v>5110</v>
+      </c>
+      <c r="K7" s="13">
+        <v>5105</v>
+      </c>
+      <c r="L7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16">
-        <v>601668</v>
-      </c>
-      <c r="E4" s="16">
-        <v>5.22</v>
-      </c>
-      <c r="F4" s="16">
-        <v>5.1</v>
-      </c>
-      <c r="G4" s="31">
-        <v>5.26</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="42">
+      <c r="N7" s="42">
         <v>0.51</v>
       </c>
-      <c r="O4" s="16">
-        <v>10144.33</v>
+      <c r="O7" s="43">
+        <v>4894.9</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" ht="51.25" customHeight="1" spans="1:15">
-      <c r="A6" s="19">
-        <v>44120</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="16">
-        <v>601668</v>
-      </c>
-      <c r="E6" s="16">
-        <v>5.12</v>
-      </c>
-      <c r="F6" s="16">
-        <v>5.1</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="16">
-        <v>5110</v>
-      </c>
-      <c r="K6" s="16">
-        <v>5105</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="43">
-        <v>0.51</v>
-      </c>
-      <c r="O6" s="44">
-        <v>4894.9</v>
-      </c>
-    </row>
-    <row r="7" ht="20.3" customHeight="1" spans="1:15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="46"/>
+    <row r="8" ht="20.3" customHeight="1" spans="1:15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="47"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="46"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="49"/>
     </row>
     <row r="11" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="47"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="46"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="49"/>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="47"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="46"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="47"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="48"/>
     </row>
     <row r="16" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="46"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="47"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="46"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="49"/>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="47"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="46"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="49"/>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="47"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="48"/>
     </row>
-    <row r="22" ht="20.2" customHeight="1" spans="1:15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="48"/>
+    <row r="22" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="49"/>
+    </row>
+    <row r="23" ht="20.2" customHeight="1" spans="1:15">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>

--- a/周报.xlsx
+++ b/周报.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11780"/>
+    <workbookView windowWidth="28000" windowHeight="11780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="投资时间线" sheetId="2" r:id="rId1"/>
+    <sheet name="买入表" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>时间</t>
   </si>
@@ -61,22 +62,31 @@
     <t>剩余资金</t>
   </si>
   <si>
+    <t>2020/11/9 - 2020/11/13</t>
+  </si>
+  <si>
+    <t>买入</t>
+  </si>
+  <si>
+    <t>基建工程</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>处于底部</t>
+  </si>
+  <si>
+    <t>股票溢价</t>
+  </si>
+  <si>
     <t>2020/10/26 - 2020/10/30</t>
   </si>
   <si>
-    <t>买入</t>
-  </si>
-  <si>
     <t>本钢转债</t>
   </si>
   <si>
-    <t>——</t>
-  </si>
-  <si>
     <t>90.592</t>
-  </si>
-  <si>
-    <t>处于底部</t>
   </si>
   <si>
     <r>
@@ -102,9 +112,6 @@
     <t>华宝油气</t>
   </si>
   <si>
-    <t>股票溢价</t>
-  </si>
-  <si>
     <t>卖出</t>
   </si>
   <si>
@@ -142,20 +149,48 @@
   <si>
     <t>建筑市场的龙头。现金充沛， 营业稳定</t>
   </si>
+  <si>
+    <t>统计时间</t>
+  </si>
+  <si>
+    <t>总资金</t>
+  </si>
+  <si>
+    <t>总使用资金</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -169,35 +204,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Helvetica Neue Medium"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
     <font>
@@ -213,7 +222,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue Medium"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -226,39 +242,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,15 +264,52 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -302,7 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,22 +333,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,7 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +356,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,10 +377,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +401,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,191 +449,236 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="36">
+  <borders count="32">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFFFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFFFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="20"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -643,94 +722,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFEFFFE"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFEFFFE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="20"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="20"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -938,19 +933,6 @@
       <right style="thin">
         <color indexed="13"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -990,11 +972,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,23 +1014,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,250 +1069,293 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,76 +1364,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2556,14 +2580,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="C$1:C$1048576 D$1:D$1048576 H$1:H$1048576 F$1:F$1048576 K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -2572,546 +2596,593 @@
     <col min="2" max="16384" width="16.3482142857143" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.85" customHeight="1" spans="1:15">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="20" customFormat="1" ht="22.85" customHeight="1" spans="1:15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="20.7" customHeight="1" spans="1:15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="41"/>
+    <row r="2" s="21" customFormat="1" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="28">
+        <v>165525</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0.704</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0.702</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="28">
+        <v>0.702</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="28">
+        <v>990</v>
+      </c>
+      <c r="K2" s="28">
+        <v>985.6</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="56">
+        <v>0.0028</v>
+      </c>
+      <c r="N2" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="28">
+        <v>8955.08</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="55.7" customHeight="1" spans="1:15">
-      <c r="A3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" s="3" customFormat="1" ht="17" customHeight="1" spans="1:15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" s="21" customFormat="1" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="32">
         <v>127018</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E4" s="32">
         <v>90.491</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F4" s="32">
         <v>90.497</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="J4" s="32">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="32">
+        <v>905.92</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="59">
+        <v>8154.08</v>
+      </c>
+    </row>
+    <row r="5" s="21" customFormat="1" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="28">
+        <v>162411</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.219</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0.22</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="28">
+        <v>990</v>
+      </c>
+      <c r="K5" s="28">
+        <v>990</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="13">
-        <v>905.92</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="32" t="s">
+      <c r="M5" s="56">
+        <v>-0.0045</v>
+      </c>
+      <c r="N5" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="28">
+        <v>9154.08</v>
+      </c>
+    </row>
+    <row r="6" ht="55.7" customHeight="1" spans="1:15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="32">
+        <v>601668</v>
+      </c>
+      <c r="E6" s="32">
+        <v>5.22</v>
+      </c>
+      <c r="F6" s="32">
+        <v>5.1</v>
+      </c>
+      <c r="G6" s="50">
+        <v>5.26</v>
+      </c>
+      <c r="H6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="O3" s="43">
-        <v>8154.08</v>
+      <c r="I6" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="60">
+        <v>0.51</v>
+      </c>
+      <c r="O6" s="32">
+        <v>10144.33</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="55.7" customHeight="1" spans="1:15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="14">
-        <v>162411</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.219</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="G4" s="14" t="s">
+    <row r="7" ht="17" customHeight="1" spans="1:15">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" ht="51.25" customHeight="1" spans="1:15">
+      <c r="A8" s="36">
+        <v>44120</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="32">
+        <v>601668</v>
+      </c>
+      <c r="E8" s="32">
+        <v>5.12</v>
+      </c>
+      <c r="F8" s="32">
+        <v>5.1</v>
+      </c>
+      <c r="G8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14">
-        <v>0.22</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="14">
-        <v>990</v>
-      </c>
-      <c r="K4" s="14">
-        <v>990</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="44">
-        <v>-0.0045</v>
-      </c>
-      <c r="N4" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="14">
-        <v>9154.08</v>
+      <c r="H8" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="32">
+        <v>5110</v>
+      </c>
+      <c r="K8" s="32">
+        <v>5105</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="58">
+        <v>0.51</v>
+      </c>
+      <c r="O8" s="59">
+        <v>4894.9</v>
       </c>
     </row>
-    <row r="5" ht="55.7" customHeight="1" spans="1:15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13">
-        <v>601668</v>
-      </c>
-      <c r="E5" s="13">
-        <v>5.22</v>
-      </c>
-      <c r="F5" s="13">
-        <v>5.1</v>
-      </c>
-      <c r="G5" s="34">
-        <v>5.26</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="46">
-        <v>0.51</v>
-      </c>
-      <c r="O5" s="13">
-        <v>10144.33</v>
-      </c>
-    </row>
-    <row r="6" ht="17" customHeight="1" spans="1:15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" ht="51.25" customHeight="1" spans="1:15">
-      <c r="A7" s="20">
-        <v>44120</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13">
-        <v>601668</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5.12</v>
-      </c>
-      <c r="F7" s="13">
-        <v>5.1</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="13">
-        <v>5110</v>
-      </c>
-      <c r="K7" s="13">
-        <v>5105</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="42">
-        <v>0.51</v>
-      </c>
-      <c r="O7" s="43">
-        <v>4894.9</v>
-      </c>
-    </row>
-    <row r="8" ht="20.3" customHeight="1" spans="1:15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="47"/>
-    </row>
-    <row r="9" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="48"/>
+    <row r="9" ht="20.3" customHeight="1" spans="1:15">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="49"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="62"/>
     </row>
     <row r="11" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="48"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="49"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="48"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="63"/>
     </row>
     <row r="14" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="49"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="48"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="63"/>
     </row>
     <row r="16" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="49"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="62"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="48"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="63"/>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="49"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="62"/>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="48"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="63"/>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="49"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="62"/>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="48"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="63"/>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="1:15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="49"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="62"/>
     </row>
-    <row r="23" ht="20.2" customHeight="1" spans="1:15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="50"/>
+    <row r="23" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="63"/>
+    </row>
+    <row r="24" ht="20.2" customHeight="1" spans="1:15">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
@@ -3119,4 +3190,198 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4"/>
+  <cols>
+    <col min="1" max="1" width="16.3482142857143" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.3482142857143" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.0446428571429" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.3482142857143" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.7857142857143"/>
+    <col min="10" max="17" width="9.14285714285714" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1"/>
+    <row r="2" s="1" customFormat="1"/>
+    <row r="3" s="1" customFormat="1"/>
+    <row r="4" s="1" customFormat="1"/>
+    <row r="5" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1"/>
+    <row r="8" s="1" customFormat="1"/>
+    <row r="10" s="2" customFormat="1" spans="1:17">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" ht="14" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="17">
+        <v>44148</v>
+      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
+        <v>165525</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.702</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.702</v>
+      </c>
+      <c r="E12" s="8">
+        <v>985.6</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" ht="14" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="10">
+        <v>127018</v>
+      </c>
+      <c r="C13" s="10">
+        <v>90.497</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10">
+        <v>905.92</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8">
+        <v>162411</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="8">
+        <v>990</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18">
+        <f>E12+E14</f>
+        <v>1975.6</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="18">
+        <f>C17-E17</f>
+        <v>8024.4</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>